--- a/GOVLWD_0323/7.gyak.xlsx
+++ b/GOVLWD_0323/7.gyak.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>FCFS</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Átlagos Körülford. idő:</t>
+  </si>
+  <si>
+    <t>3;17;23</t>
+  </si>
+  <si>
+    <t>7;21;25</t>
+  </si>
+  <si>
+    <t>1;10;2</t>
+  </si>
+  <si>
+    <t>10;21</t>
+  </si>
+  <si>
+    <t>14;23</t>
+  </si>
+  <si>
+    <t>5;7</t>
   </si>
 </sst>
 </file>
@@ -574,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -676,6 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,10 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A11:BR70"/>
+  <dimension ref="A11:BR72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1523,10 +1544,10 @@
       <c r="A19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
     </row>
@@ -1985,10 +2006,10 @@
       <c r="A32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="59"/>
     </row>
     <row r="33" spans="1:70" ht="15" thickTop="1"/>
     <row r="37" spans="1:70" ht="15" thickBot="1">
@@ -2462,10 +2483,10 @@
       <c r="A45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:70" ht="15" thickTop="1"/>
     <row r="48" spans="1:70">
@@ -2473,7 +2494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15" thickBot="1">
+    <row r="49" spans="1:41" ht="15" thickBot="1">
       <c r="K49">
         <v>0</v>
       </c>
@@ -2565,7 +2586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:41" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="30" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2613,7 @@
       <c r="M50" s="16"/>
       <c r="AO50" s="9"/>
     </row>
-    <row r="51" spans="1:42" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:41" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="46" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2647,7 @@
       <c r="W51" s="16"/>
       <c r="AO51" s="17"/>
     </row>
-    <row r="52" spans="1:42" ht="15" thickBot="1">
+    <row r="52" spans="1:41" ht="15" thickBot="1">
       <c r="A52" s="47" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2684,7 @@
       <c r="Z52" s="16"/>
       <c r="AO52" s="17"/>
     </row>
-    <row r="53" spans="1:42" ht="15" thickBot="1">
+    <row r="53" spans="1:41" ht="15" thickBot="1">
       <c r="A53" s="47" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +2724,7 @@
       <c r="AF53" s="8"/>
       <c r="AO53" s="17"/>
     </row>
-    <row r="54" spans="1:42" ht="15" thickBot="1">
+    <row r="54" spans="1:41" ht="15" thickBot="1">
       <c r="A54" s="47" t="s">
         <v>8</v>
       </c>
@@ -2744,7 +2765,7 @@
       <c r="AI54" s="16"/>
       <c r="AO54" s="17"/>
     </row>
-    <row r="55" spans="1:42" ht="15" thickBot="1">
+    <row r="55" spans="1:41" ht="15" thickBot="1">
       <c r="A55" s="48" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2817,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="19"/>
     </row>
-    <row r="56" spans="1:42" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:41" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="49" t="s">
         <v>27</v>
       </c>
@@ -2821,9 +2842,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15" thickTop="1"/>
-    <row r="58" spans="1:42">
-      <c r="A58" s="58" t="s">
+    <row r="57" spans="1:41" ht="15" thickTop="1"/>
+    <row r="58" spans="1:41">
+      <c r="A58" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B58">
@@ -2831,8 +2852,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="59" spans="1:42">
-      <c r="A59" s="58" t="s">
+    <row r="59" spans="1:41">
+      <c r="A59" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B59">
@@ -2840,7 +2861,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="15" thickBot="1">
+    <row r="62" spans="1:41" ht="15" thickBot="1">
       <c r="K62">
         <v>0</v>
       </c>
@@ -2919,26 +2940,8 @@
       <c r="AJ62">
         <v>25</v>
       </c>
-      <c r="AK62">
-        <v>26</v>
-      </c>
-      <c r="AL62">
-        <v>27</v>
-      </c>
-      <c r="AM62">
-        <v>28</v>
-      </c>
-      <c r="AN62">
-        <v>29</v>
-      </c>
-      <c r="AO62">
-        <v>30</v>
-      </c>
-      <c r="AP62">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" ht="15.6" thickTop="1" thickBot="1">
+    </row>
+    <row r="63" spans="1:41" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="30" t="s">
         <v>28</v>
       </c>
@@ -2960,9 +2963,9 @@
       <c r="J63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="23"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -2981,8 +2984,9 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-    </row>
-    <row r="64" spans="1:42" ht="15" thickTop="1">
+      <c r="AK63" s="9"/>
+    </row>
+    <row r="64" spans="1:41" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="46" t="s">
         <v>5</v>
       </c>
@@ -3006,27 +3010,32 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
-      <c r="AA64" s="57"/>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="57"/>
-      <c r="AD64" s="57"/>
-      <c r="AE64" s="57"/>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="M64" s="11"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="16"/>
+      <c r="AK64" s="17"/>
+    </row>
+    <row r="65" spans="1:37" ht="15" thickBot="1">
       <c r="A65" s="47" t="s">
         <v>6</v>
       </c>
@@ -3050,39 +3059,48 @@
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="57"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="56"/>
       <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="57"/>
-      <c r="U65" s="57"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
-      <c r="AA65" s="57"/>
-      <c r="AB65" s="57"/>
-      <c r="AC65" s="57"/>
-      <c r="AD65" s="57"/>
-      <c r="AE65" s="57"/>
-      <c r="AF65" s="57"/>
-      <c r="AG65" s="57"/>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="S65" s="22"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+      <c r="AD65" s="53"/>
+      <c r="AE65" s="53"/>
+      <c r="AF65" s="53"/>
+      <c r="AG65" s="53"/>
+      <c r="AK65" s="17"/>
+    </row>
+    <row r="66" spans="1:37" ht="15" thickBot="1">
       <c r="A66" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="34">
         <v>0</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
+      <c r="C66" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="35">
+        <v>7</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="36">
+        <v>14</v>
+      </c>
       <c r="J66" s="10" t="s">
         <v>4</v>
       </c>
@@ -3091,64 +3109,163 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="57"/>
-      <c r="Z66" s="57"/>
-      <c r="AA66" s="57"/>
-      <c r="AB66" s="57"/>
-      <c r="AC66" s="57"/>
-      <c r="AD66" s="57"/>
-      <c r="AE66" s="57"/>
-      <c r="AF66" s="57"/>
-      <c r="AG66" s="57"/>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="P66" s="11"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="16"/>
+      <c r="AK66" s="17"/>
+    </row>
+    <row r="67" spans="1:37" ht="15" thickBot="1">
       <c r="A67" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="34">
         <v>3</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
+      <c r="C67" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="35">
+        <v>10</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="36">
+        <v>17</v>
+      </c>
       <c r="J67" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" ht="15" thickBot="1">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="17"/>
+    </row>
+    <row r="68" spans="1:37" ht="15" thickBot="1">
       <c r="A68" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="37">
         <v>0</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="39"/>
+      <c r="C68" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="38">
+        <v>5</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="39">
+        <v>7</v>
+      </c>
       <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="1:33" ht="15.6" thickTop="1" thickBot="1">
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="19"/>
+    </row>
+    <row r="69" spans="1:37" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:33" ht="15" thickTop="1"/>
+      <c r="B69" s="50">
+        <v>3</v>
+      </c>
+      <c r="C69" s="51">
+        <v>23</v>
+      </c>
+      <c r="D69" s="51">
+        <v>8</v>
+      </c>
+      <c r="E69" s="51">
+        <v>18</v>
+      </c>
+      <c r="F69" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" ht="15" thickTop="1"/>
+    <row r="71" spans="1:37">
+      <c r="A71" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <f>(0+13+5+12+7)/5</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37">
+      <c r="A72" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(B69:F69)</f>
+        <v>12.4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B19:C19"/>
